--- a/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 30,76</t>
+          <t>9,4; 30,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,57; 61,34</t>
+          <t>35,51; 61,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,91; 41,83</t>
+          <t>23,59; 40,9</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,16; 32,79</t>
+          <t>22,62; 33,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,05; 42,38</t>
+          <t>31,15; 42,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,57; 35,65</t>
+          <t>27,89; 35,38</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 26,44</t>
+          <t>16,17; 26,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,89; 46,78</t>
+          <t>37,4; 46,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,45; 33,86</t>
+          <t>25,35; 33,47</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 22,03</t>
+          <t>13,13; 22,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,89; 29,86</t>
+          <t>21,26; 30,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 24,35</t>
+          <t>17,94; 24,31</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,93; 33,53</t>
+          <t>24,57; 33,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,36; 50,4</t>
+          <t>37,93; 49,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,3; 39,64</t>
+          <t>32,45; 39,81</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,08; 25,83</t>
+          <t>20,87; 25,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,06</t>
+          <t>35,82; 40,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,02</t>
+          <t>28,17; 32,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 30,96</t>
+          <t>9,35; 30,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,51; 61,71</t>
+          <t>35,57; 61,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,59; 40,9</t>
+          <t>23,91; 41,83</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,62; 33,21</t>
+          <t>22,16; 32,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,15; 42,23</t>
+          <t>31,05; 42,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,89; 35,38</t>
+          <t>27,57; 35,65</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,17; 26,45</t>
+          <t>16,55; 26,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,4; 46,07</t>
+          <t>37,89; 46,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,35; 33,47</t>
+          <t>25,45; 33,86</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 22,3</t>
+          <t>12,68; 22,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,26; 30,2</t>
+          <t>20,89; 29,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,31</t>
+          <t>18,3; 24,35</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,57; 33,08</t>
+          <t>24,93; 33,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,93; 49,79</t>
+          <t>38,36; 50,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,45; 39,81</t>
+          <t>32,3; 39,64</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,95</t>
+          <t>21,08; 25,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,82; 40,9</t>
+          <t>35,64; 41,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,17; 32,1</t>
+          <t>28,13; 32,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>30,86%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 30,76</t>
+          <t>20,31; 30,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,57; 61,34</t>
+          <t>33,21; 43,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,91; 41,83</t>
+          <t>27,25; 34,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>24,77%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,16; 32,79</t>
+          <t>6,47; 24,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,05; 42,38</t>
+          <t>37,52; 46,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,57; 35,65</t>
+          <t>12,23; 32,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 26,44</t>
+          <t>12,49; 21,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,89; 46,78</t>
+          <t>16,27; 27,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,45; 33,86</t>
+          <t>16,7; 23,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>38,65%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,68; 22,03</t>
+          <t>24,28; 32,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,89; 29,86</t>
+          <t>39,14; 69,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 24,35</t>
+          <t>33,02; 54,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>39,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>28,72%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,93; 33,53</t>
+          <t>13,37; 24,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,36; 50,4</t>
+          <t>35,41; 49,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,3; 39,64</t>
+          <t>22,38; 32,67</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>23,57%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>38,05%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>30,08%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>21,08; 25,83</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>35,64; 41,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>28,13; 32,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,31; 30,44</t>
+          <t>20,95; 30,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,21; 43,42</t>
+          <t>33,49; 43,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,25; 34,35</t>
+          <t>27,41; 34,6</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 24,82</t>
+          <t>6,86; 24,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,52; 46,23</t>
+          <t>37,41; 46,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 32,34</t>
+          <t>13,1; 32,3</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 21,94</t>
+          <t>13,4; 22,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,27; 27,74</t>
+          <t>16,4; 28,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,41</t>
+          <t>16,33; 23,38</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,28; 32,72</t>
+          <t>23,82; 32,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,14; 69,93</t>
+          <t>39,21; 67,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,02; 54,83</t>
+          <t>32,74; 55,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,37; 24,43</t>
+          <t>14,05; 24,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,41; 49,81</t>
+          <t>35,3; 49,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,38; 32,67</t>
+          <t>22,69; 33,5</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se traslada al trabajo o actividad habitual de forma activa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83889</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>98537</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>182427</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>69768; 101714</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>86439; 111537</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>162060; 204547</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>132048</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>166723</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>298771</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>55267; 200737</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>149982; 184960</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>158069; 389627</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>60527</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>75044</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>135571</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47719; 81191</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>52886; 91955</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>110778; 158637</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>131520</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>235952</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>367473</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>112210; 153393</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>188073; 324599</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>311289; 527772</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>407985</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>576256</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>984242</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>276125; 480515</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>515749; 720912</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>777389; 1147904</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>